--- a/ParametricGraph/bench4x1.xlsx
+++ b/ParametricGraph/bench4x1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,8 +425,8 @@
         <v>4041</v>
       </c>
       <c r="B2">
-        <f>21*19*21*19</f>
-        <v>159201</v>
+        <f>2*101*2*101</f>
+        <v>40804</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -450,283 +450,821 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="B5">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>-0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>-0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7">
-        <v>-8</v>
-      </c>
       <c r="B7">
-        <v>-0.7</v>
-      </c>
-      <c r="C7">
-        <v>-8</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>-0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8">
-        <v>-7</v>
-      </c>
       <c r="B8">
-        <v>-0.6</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>-0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9">
-        <v>-6</v>
-      </c>
       <c r="B9">
-        <v>-0.5</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10">
-        <v>-5</v>
-      </c>
       <c r="B10">
-        <v>-0.4</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11">
-        <v>-4</v>
-      </c>
       <c r="B11">
-        <v>-0.3</v>
-      </c>
-      <c r="C11">
-        <v>-4</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12">
-        <v>-3</v>
-      </c>
       <c r="B12">
-        <v>-0.2</v>
-      </c>
-      <c r="C12">
-        <v>-3</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13">
-        <v>-2</v>
-      </c>
       <c r="B13">
-        <v>-0.1</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
+        <v>0.8</v>
       </c>
       <c r="D13">
-        <v>-0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14">
-        <v>-1</v>
-      </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15">
-        <v>0</v>
-      </c>
       <c r="B15">
-        <v>0.1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16">
-        <v>1</v>
-      </c>
       <c r="B16">
-        <v>0.2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+      <c r="D17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>1.4</v>
+      </c>
+      <c r="D19">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="D20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>1.6</v>
+      </c>
+      <c r="D21">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>1.7</v>
+      </c>
+      <c r="D22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>1.8</v>
+      </c>
+      <c r="D23">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>1.9</v>
+      </c>
+      <c r="D24">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="B17">
-        <v>0.3</v>
-      </c>
-      <c r="C17">
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>2.1</v>
+      </c>
+      <c r="D26">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D27">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D28">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>2.4</v>
+      </c>
+      <c r="D29">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>2.5</v>
+      </c>
+      <c r="D30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>2.6</v>
+      </c>
+      <c r="D31">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>2.7</v>
+      </c>
+      <c r="D32">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>2.8</v>
+      </c>
+      <c r="D33">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>2.9</v>
+      </c>
+      <c r="D34">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
         <v>3</v>
       </c>
-      <c r="B18">
-        <v>0.4</v>
-      </c>
-      <c r="C18">
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>3.1</v>
+      </c>
+      <c r="D36">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>3.2</v>
+      </c>
+      <c r="D37">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>3.3</v>
+      </c>
+      <c r="D38">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>3.4</v>
+      </c>
+      <c r="D39">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>3.5</v>
+      </c>
+      <c r="D40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>3.6</v>
+      </c>
+      <c r="D41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>3.7</v>
+      </c>
+      <c r="D42">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>3.8</v>
+      </c>
+      <c r="D43">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>3.9</v>
+      </c>
+      <c r="D44">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
         <v>4</v>
       </c>
-      <c r="B19">
-        <v>0.5</v>
-      </c>
-      <c r="C19">
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D46">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>4.2</v>
+      </c>
+      <c r="D47">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>4.3</v>
+      </c>
+      <c r="D48">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D49">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
+        <v>4.5</v>
+      </c>
+      <c r="D50">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D51">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52">
+        <v>4.7</v>
+      </c>
+      <c r="D52">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53">
+        <v>4.8</v>
+      </c>
+      <c r="D53">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D54">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>0.6</v>
-      </c>
-      <c r="C20">
+      <c r="D55">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D56">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57">
+        <v>5.2</v>
+      </c>
+      <c r="D57">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58">
+        <v>5.3</v>
+      </c>
+      <c r="D58">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59">
+        <v>5.4</v>
+      </c>
+      <c r="D59">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60">
+        <v>5.5</v>
+      </c>
+      <c r="D60">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61">
+        <v>5.6</v>
+      </c>
+      <c r="D61">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62">
+        <v>5.7</v>
+      </c>
+      <c r="D62">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63">
+        <v>5.8</v>
+      </c>
+      <c r="D63">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64">
+        <v>5.9</v>
+      </c>
+      <c r="D64">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65">
         <v>6</v>
       </c>
-      <c r="B21">
-        <v>0.7</v>
-      </c>
-      <c r="C21">
+      <c r="D65">
         <v>6</v>
       </c>
-      <c r="D21">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66">
+        <v>6.1</v>
+      </c>
+      <c r="D66">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67">
+        <v>6.2</v>
+      </c>
+      <c r="D67">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68">
+        <v>6.3</v>
+      </c>
+      <c r="D68">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69">
+        <v>6.4</v>
+      </c>
+      <c r="D69">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70">
+        <v>6.5</v>
+      </c>
+      <c r="D70">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71">
+        <v>6.6</v>
+      </c>
+      <c r="D71">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72">
+        <v>6.7</v>
+      </c>
+      <c r="D72">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73">
+        <v>6.8</v>
+      </c>
+      <c r="D73">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74">
+        <v>6.9</v>
+      </c>
+      <c r="D74">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75">
         <v>7</v>
       </c>
-      <c r="B22">
-        <v>0.8</v>
-      </c>
-      <c r="C22">
+      <c r="D75">
         <v>7</v>
       </c>
-      <c r="D22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76">
+        <v>7.1</v>
+      </c>
+      <c r="D76">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77">
+        <v>7.2</v>
+      </c>
+      <c r="D77">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78">
+        <v>7.3</v>
+      </c>
+      <c r="D78">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79">
+        <v>7.4</v>
+      </c>
+      <c r="D79">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80">
+        <v>7.5</v>
+      </c>
+      <c r="D80">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81">
+        <v>7.6</v>
+      </c>
+      <c r="D81">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82">
+        <v>7.7</v>
+      </c>
+      <c r="D82">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83">
+        <v>7.8</v>
+      </c>
+      <c r="D83">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84">
+        <v>7.9</v>
+      </c>
+      <c r="D84">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85">
         <v>8</v>
       </c>
-      <c r="B23">
-        <v>0.9</v>
-      </c>
-      <c r="C23">
+      <c r="D85">
         <v>8</v>
       </c>
-      <c r="D23">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86">
+        <v>8.1</v>
+      </c>
+      <c r="D86">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D87">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D88">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89">
+        <v>8.4</v>
+      </c>
+      <c r="D89">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90">
+        <v>8.5</v>
+      </c>
+      <c r="D90">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91">
+        <v>8.6</v>
+      </c>
+      <c r="D91">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D92">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D93">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94">
+        <v>8.9</v>
+      </c>
+      <c r="D94">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="D95">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+    <row r="96" spans="2:4">
+      <c r="B96">
+        <v>9.1</v>
+      </c>
+      <c r="D96">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D97">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D98">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99">
+        <v>9.4</v>
+      </c>
+      <c r="D99">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100">
+        <v>9.5</v>
+      </c>
+      <c r="D100">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101">
+        <v>9.6</v>
+      </c>
+      <c r="D101">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D102">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D103">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104">
+        <v>9.9</v>
+      </c>
+      <c r="D104">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="D105">
         <v>10</v>
       </c>
     </row>

--- a/ParametricGraph/bench4x1.xlsx
+++ b/ParametricGraph/bench4x1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Прибор 2,2</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -403,6 +406,9 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
@@ -427,6 +433,9 @@
       <c r="B2">
         <f>2*101*2*101</f>
         <v>40804</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
